--- a/Clase de NIvelacion asistencia 3ro y 4to.xlsx
+++ b/Clase de NIvelacion asistencia 3ro y 4to.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEC143-D49B-46C6-A7FD-9284540909AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE2EDBC-A65F-4529-94F6-6AA3159C5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -613,24 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -654,6 +636,48 @@
     <xf numFmtId="22" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,30 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,15 +718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1938020</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>398780</xdr:rowOff>
+      <xdr:colOff>1925320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>321509</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -743,8 +743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2540000" y="7713980"/>
-          <a:ext cx="1348740" cy="402789"/>
+          <a:off x="2528570" y="8348980"/>
+          <a:ext cx="1351280" cy="398979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,21 +1278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="10" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1300,339 +1300,339 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28">
+    <row r="7" spans="1:6" s="15" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="22">
         <v>44441.770833333336</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="23">
         <v>44452.770833333336</v>
       </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="D17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="C18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
+      <c r="D19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="3"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="3"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="3"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="3"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="3"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="3"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="3"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="4"/>
     </row>
   </sheetData>
@@ -1645,7 +1645,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1657,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1669,7 +1669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
